--- a/html/resources/aoiConditions/test1Conditions.xlsx
+++ b/html/resources/aoiConditions/test1Conditions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="105">
   <si>
     <t>firstAudio</t>
   </si>
@@ -28,283 +28,307 @@
     <t>whichAudio</t>
   </si>
   <si>
-    <t>trainingaudio/20_tatito3.wav</t>
+    <t>trainingaudio/24_takopa3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/26_kapako1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/25_tapapi3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/08_tipako2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/16_kokapi2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/21_papika1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/05_titopo3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/10_tokiti3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/14_pokoto3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/12_pokika2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/17_kotako2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/11_tokiko1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/04_kitoti1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/07_pitapi3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/06_titoka3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/15_kopota2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/18_popata1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/22_kakoki1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/13_kopopi3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/19_papipi2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/02_pitito3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/09_tipata1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/23_patoko3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/94_kipipi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/03_kikita3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/20_tatito2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/27_pakapa1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/01_kitipi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/22_kakoki3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/16_kokapi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/11_tokiko2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/13_kopopi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/19_papipi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/07_pitapi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/05_titopo1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/01_kitipi2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/10_tokiti1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/21_papika3.wav</t>
   </si>
   <si>
     <t>trainingaudio/14_pokoto1.wav</t>
   </si>
   <si>
-    <t>trainingaudio/24_takopa3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/26_kapako1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/19_papipi2.wav</t>
+    <t>trainingaudio/23_patoko1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/27_pakapa2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/15_kopota1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/12_pokika1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/26_kapako2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/17_kotako1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/09_tipata3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/24_takopa1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/26_kapako3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/25_tapapi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/08_tipako3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/05_titopo2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/12_pokika3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/11_tokiko3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/04_kitoti2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/07_pitapi2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/06_titoka1.wav</t>
   </si>
   <si>
     <t>trainingaudio/15_kopota3.wav</t>
   </si>
   <si>
-    <t>trainingaudio/04_kitoti2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/16_kokapi2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/25_tapapi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/06_titoka2.wav</t>
-  </si>
-  <si>
     <t>trainingaudio/18_popata2.wav</t>
   </si>
   <si>
-    <t>trainingaudio/12_pokika1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/13_kopopi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/23_patoko2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/08_tipako2.wav</t>
+    <t>trainingaudio/22_kakoki2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/02_pitito1.wav</t>
   </si>
   <si>
     <t>trainingaudio/09_tipata2.wav</t>
   </si>
   <si>
-    <t>trainingaudio/21_papika1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/10_tokiti1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/05_titopo1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/07_pitapi2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/17_kotako1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/11_tokiko2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/02_pitito3.wav</t>
+    <t>trainingaudio/94_kipipi3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/03_kikita1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/20_tatito1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/01_kitipi3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/13_kopopi2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/19_papipi3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/08_tipako1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/10_tokiti2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/14_pokoto2.wav</t>
   </si>
   <si>
     <t>trainingaudio/03_kikita2.wav</t>
   </si>
   <si>
-    <t>trainingaudio/01_kitipi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/27_pakapa1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/22_kakoki2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/12_pokika3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/03_kikita3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/25_tapapi3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/13_kopopi2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/07_pitapi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/08_tipako1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/05_titopo2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/27_pakapa2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/22_kakoki1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/20_tatito1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/14_pokoto2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/24_takopa1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/26_kapako2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/19_papipi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/15_kopota1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/04_kitoti1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/16_kokapi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/25_tapapi2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/06_titoka3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/18_popata1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/23_patoko1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/09_tipata3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/21_papika3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/10_tokiti3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/07_pitapi3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/17_kotako2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/11_tokiko1.wav</t>
+    <t>trainingaudio/94_kipipi2.wav</t>
   </si>
   <si>
     <t>trainingaudio/02_pitito2.wav</t>
   </si>
   <si>
-    <t>trainingaudio/01_kitipi3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/12_pokika2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/26_kapako3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/04_kitoti3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/10_tokiti2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/02_pitito1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/05_titopo3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/15_kopota2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/18_popata3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/21_papika2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/01_kitipi2.wav</t>
+    <t>pngimages/24_banana.png</t>
+  </si>
+  <si>
+    <t>pngimages/26_pineapple.png</t>
+  </si>
+  <si>
+    <t>pngimages/25_apple.png</t>
+  </si>
+  <si>
+    <t>pngimages/08_bell.png</t>
+  </si>
+  <si>
+    <t>pngimages/16_icecream.png</t>
+  </si>
+  <si>
+    <t>pngimages/21_cheese.png</t>
+  </si>
+  <si>
+    <t>pngimages/05_megaphone.png</t>
+  </si>
+  <si>
+    <t>pngimages/10_backpack.png</t>
+  </si>
+  <si>
+    <t>pngimages/14_coffee.png</t>
+  </si>
+  <si>
+    <t>pngimages/12_pie.png</t>
+  </si>
+  <si>
+    <t>pngimages/17_cracker.png</t>
+  </si>
+  <si>
+    <t>pngimages/11_compass.png</t>
+  </si>
+  <si>
+    <t>pngimages/04_ladder.png</t>
+  </si>
+  <si>
+    <t>pngimages/07_suitcase.png</t>
+  </si>
+  <si>
+    <t>pngimages/06_tent.png</t>
+  </si>
+  <si>
+    <t>pngimages/15_barrel.png</t>
+  </si>
+  <si>
+    <t>pngimages/18_donut.png</t>
+  </si>
+  <si>
+    <t>pngimages/22_egg.png</t>
+  </si>
+  <si>
+    <t>pngimages/13_toast.png</t>
+  </si>
+  <si>
+    <t>pngimages/19_burger.png</t>
+  </si>
+  <si>
+    <t>pngimages/02_pallet.png</t>
+  </si>
+  <si>
+    <t>pngimages/09_plane.png</t>
+  </si>
+  <si>
+    <t>pngimages/23_lemon.png</t>
+  </si>
+  <si>
+    <t>pngimages/94_house.png</t>
+  </si>
+  <si>
+    <t>pngimages/03_box.png</t>
   </si>
   <si>
     <t>pngimages/20_pizza.png</t>
   </si>
   <si>
-    <t>pngimages/14_coffee.png</t>
-  </si>
-  <si>
-    <t>pngimages/24_banana.png</t>
-  </si>
-  <si>
-    <t>pngimages/26_pineapple.png</t>
-  </si>
-  <si>
-    <t>pngimages/19_burger.png</t>
-  </si>
-  <si>
-    <t>pngimages/15_barrel.png</t>
-  </si>
-  <si>
-    <t>pngimages/04_ladder.png</t>
-  </si>
-  <si>
-    <t>pngimages/16_icecream.png</t>
-  </si>
-  <si>
-    <t>pngimages/25_apple.png</t>
-  </si>
-  <si>
-    <t>pngimages/06_tent.png</t>
-  </si>
-  <si>
-    <t>pngimages/18_donut.png</t>
-  </si>
-  <si>
-    <t>pngimages/12_pie.png</t>
-  </si>
-  <si>
-    <t>pngimages/13_toast.png</t>
-  </si>
-  <si>
-    <t>pngimages/23_lemon.png</t>
-  </si>
-  <si>
-    <t>pngimages/08_bell.png</t>
-  </si>
-  <si>
-    <t>pngimages/09_plane.png</t>
-  </si>
-  <si>
-    <t>pngimages/21_cheese.png</t>
-  </si>
-  <si>
-    <t>pngimages/10_backpack.png</t>
-  </si>
-  <si>
-    <t>pngimages/05_megaphone.png</t>
-  </si>
-  <si>
-    <t>pngimages/07_suitcase.png</t>
-  </si>
-  <si>
-    <t>pngimages/17_cracker.png</t>
-  </si>
-  <si>
-    <t>pngimages/11_compass.png</t>
-  </si>
-  <si>
-    <t>pngimages/02_pallet.png</t>
-  </si>
-  <si>
-    <t>pngimages/03_box.png</t>
+    <t>pngimages/27_kiwi.png</t>
   </si>
   <si>
     <t>pngimages/01_gift.png</t>
-  </si>
-  <si>
-    <t>pngimages/27_kiwi.png</t>
-  </si>
-  <si>
-    <t>pngimages/22_egg.png</t>
   </si>
 </sst>
 </file>
@@ -662,7 +686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -687,10 +711,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -701,10 +725,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -715,10 +739,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -729,10 +753,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -743,13 +767,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -757,10 +781,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -771,13 +795,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -785,13 +809,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -799,13 +823,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -813,10 +837,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -827,10 +851,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -841,13 +865,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -855,13 +879,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -869,10 +893,10 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -883,10 +907,10 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -897,13 +921,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -911,13 +935,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -925,10 +949,10 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -939,10 +963,10 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -953,13 +977,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -967,13 +991,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -981,10 +1005,10 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -995,13 +1019,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1009,13 +1033,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1023,10 +1047,10 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1037,13 +1061,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="C27" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1051,13 +1075,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1065,10 +1089,10 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -1076,41 +1100,41 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -1118,13 +1142,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1132,27 +1156,27 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -1160,13 +1184,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C36" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -1174,41 +1198,41 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C39" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -1216,13 +1240,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -1230,13 +1254,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -1244,27 +1268,27 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C42" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C43" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -1272,13 +1296,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C44" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -1286,13 +1310,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="C45" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -1300,13 +1324,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C46" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -1314,13 +1338,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -1328,27 +1352,27 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C48" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -1356,13 +1380,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -1370,41 +1394,41 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="C52" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B53" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -1412,13 +1436,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B54" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C54" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -1426,16 +1450,44 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B55" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" t="s">
+        <v>102</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" t="s">
+        <v>98</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/html/resources/aoiConditions/test1Conditions.xlsx
+++ b/html/resources/aoiConditions/test1Conditions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="99">
   <si>
     <t>firstAudio</t>
   </si>
@@ -28,223 +28,244 @@
     <t>whichAudio</t>
   </si>
   <si>
+    <t>trainingaudio/94_kipipi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/19_papipi3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/21_papika1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/14_pokoto1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/25_tapapi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/15_kopota2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/05_titopo3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/09_tipata2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/20_tatito1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/27_pakapa1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/06_titoka2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/11_tokiko3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/17_kotako3.wav</t>
+  </si>
+  <si>
     <t>trainingaudio/24_takopa3.wav</t>
   </si>
   <si>
+    <t>trainingaudio/26_kapako3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/02_pitito3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/08_tipako2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/03_kikita2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/18_popata2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/04_kitoti1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/23_patoko3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/07_pitapi3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/10_tokiti2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/22_kakoki3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/13_kopopi2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/01_kitipi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/16_kokapi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/12_pokika2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/18_popata3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/05_titopo1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/20_tatito2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/16_kokapi2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/17_kotako1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/22_kakoki1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/23_patoko1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/07_pitapi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/11_tokiko1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/15_kopota3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/12_pokika3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/10_tokiti1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/24_takopa2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/01_kitipi2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/19_papipi2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/21_papika3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/94_kipipi3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/19_papipi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/14_pokoto2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/25_tapapi3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/05_titopo2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/09_tipata3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/27_pakapa3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/06_titoka3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/17_kotako2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/24_takopa1.wav</t>
+  </si>
+  <si>
     <t>trainingaudio/26_kapako1.wav</t>
   </si>
   <si>
-    <t>trainingaudio/25_tapapi3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/08_tipako2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/16_kokapi2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/21_papika1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/05_titopo3.wav</t>
+    <t>trainingaudio/02_pitito1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/08_tipako1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/03_kikita3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/04_kitoti2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/07_pitapi2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/13_kopopi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/25_tapapi2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/14_pokoto3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/27_pakapa2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/11_tokiko2.wav</t>
   </si>
   <si>
     <t>trainingaudio/10_tokiti3.wav</t>
   </si>
   <si>
-    <t>trainingaudio/14_pokoto3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/12_pokika2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/17_kotako2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/11_tokiko1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/04_kitoti1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/07_pitapi3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/06_titoka3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/15_kopota2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/18_popata1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/22_kakoki1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/13_kopopi3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/19_papipi2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/02_pitito3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/09_tipata1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/23_patoko3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/94_kipipi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/03_kikita3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/20_tatito2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/27_pakapa1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/01_kitipi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/22_kakoki3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/16_kokapi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/11_tokiko2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/13_kopopi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/19_papipi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/07_pitapi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/05_titopo1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/01_kitipi2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/10_tokiti1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/21_papika3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/14_pokoto1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/23_patoko1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/27_pakapa2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/15_kopota1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/12_pokika1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/26_kapako2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/17_kotako1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/09_tipata3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/24_takopa1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/26_kapako3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/25_tapapi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/08_tipako3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/05_titopo2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/12_pokika3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/11_tokiko3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/04_kitoti2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/07_pitapi2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/06_titoka1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/15_kopota3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/18_popata2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/22_kakoki2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/02_pitito1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/09_tipata2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/94_kipipi3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/03_kikita1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/20_tatito1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/01_kitipi3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/13_kopopi2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/19_papipi3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/08_tipako1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/10_tokiti2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/14_pokoto2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/03_kikita2.wav</t>
-  </si>
-  <si>
     <t>trainingaudio/94_kipipi2.wav</t>
   </si>
   <si>
-    <t>trainingaudio/02_pitito2.wav</t>
+    <t>pngimages/94_house.png</t>
+  </si>
+  <si>
+    <t>pngimages/19_burger.png</t>
+  </si>
+  <si>
+    <t>pngimages/21_cheese.png</t>
+  </si>
+  <si>
+    <t>pngimages/14_coffee.png</t>
+  </si>
+  <si>
+    <t>pngimages/25_apple.png</t>
+  </si>
+  <si>
+    <t>pngimages/15_barrel.png</t>
+  </si>
+  <si>
+    <t>pngimages/05_megaphone.png</t>
+  </si>
+  <si>
+    <t>pngimages/09_plane.png</t>
+  </si>
+  <si>
+    <t>pngimages/20_pizza.png</t>
+  </si>
+  <si>
+    <t>pngimages/27_kiwi.png</t>
+  </si>
+  <si>
+    <t>pngimages/06_tent.png</t>
+  </si>
+  <si>
+    <t>pngimages/11_compass.png</t>
+  </si>
+  <si>
+    <t>pngimages/17_cracker.png</t>
   </si>
   <si>
     <t>pngimages/24_banana.png</t>
@@ -253,82 +274,43 @@
     <t>pngimages/26_pineapple.png</t>
   </si>
   <si>
-    <t>pngimages/25_apple.png</t>
+    <t>pngimages/02_pallet.png</t>
   </si>
   <si>
     <t>pngimages/08_bell.png</t>
   </si>
   <si>
+    <t>pngimages/03_box.png</t>
+  </si>
+  <si>
+    <t>pngimages/18_donut.png</t>
+  </si>
+  <si>
+    <t>pngimages/04_ladder.png</t>
+  </si>
+  <si>
+    <t>pngimages/23_lemon.png</t>
+  </si>
+  <si>
+    <t>pngimages/07_suitcase.png</t>
+  </si>
+  <si>
+    <t>pngimages/10_backpack.png</t>
+  </si>
+  <si>
+    <t>pngimages/22_egg.png</t>
+  </si>
+  <si>
+    <t>pngimages/13_toast.png</t>
+  </si>
+  <si>
+    <t>pngimages/01_gift.png</t>
+  </si>
+  <si>
     <t>pngimages/16_icecream.png</t>
   </si>
   <si>
-    <t>pngimages/21_cheese.png</t>
-  </si>
-  <si>
-    <t>pngimages/05_megaphone.png</t>
-  </si>
-  <si>
-    <t>pngimages/10_backpack.png</t>
-  </si>
-  <si>
-    <t>pngimages/14_coffee.png</t>
-  </si>
-  <si>
     <t>pngimages/12_pie.png</t>
-  </si>
-  <si>
-    <t>pngimages/17_cracker.png</t>
-  </si>
-  <si>
-    <t>pngimages/11_compass.png</t>
-  </si>
-  <si>
-    <t>pngimages/04_ladder.png</t>
-  </si>
-  <si>
-    <t>pngimages/07_suitcase.png</t>
-  </si>
-  <si>
-    <t>pngimages/06_tent.png</t>
-  </si>
-  <si>
-    <t>pngimages/15_barrel.png</t>
-  </si>
-  <si>
-    <t>pngimages/18_donut.png</t>
-  </si>
-  <si>
-    <t>pngimages/22_egg.png</t>
-  </si>
-  <si>
-    <t>pngimages/13_toast.png</t>
-  </si>
-  <si>
-    <t>pngimages/19_burger.png</t>
-  </si>
-  <si>
-    <t>pngimages/02_pallet.png</t>
-  </si>
-  <si>
-    <t>pngimages/09_plane.png</t>
-  </si>
-  <si>
-    <t>pngimages/23_lemon.png</t>
-  </si>
-  <si>
-    <t>pngimages/94_house.png</t>
-  </si>
-  <si>
-    <t>pngimages/03_box.png</t>
-  </si>
-  <si>
-    <t>pngimages/20_pizza.png</t>
-  </si>
-  <si>
-    <t>pngimages/27_kiwi.png</t>
-  </si>
-  <si>
-    <t>pngimages/01_gift.png</t>
   </si>
 </sst>
 </file>
@@ -711,13 +693,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -725,13 +707,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -739,13 +721,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -753,10 +735,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -767,10 +749,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -784,10 +766,10 @@
         <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -795,10 +777,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -809,13 +791,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -823,13 +805,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -837,13 +819,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -851,13 +833,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -865,13 +847,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -879,10 +861,10 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -893,10 +875,10 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -907,13 +889,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -921,13 +903,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -935,13 +917,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -949,13 +931,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -963,13 +945,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -977,10 +959,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -991,13 +973,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1005,10 +987,10 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -1022,7 +1004,7 @@
         <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -1033,13 +1015,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1047,13 +1029,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1061,13 +1043,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1075,13 +1057,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1089,13 +1071,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1103,10 +1085,10 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -1114,27 +1096,27 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -1142,27 +1124,27 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1170,13 +1152,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -1184,41 +1166,41 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="C38" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -1226,13 +1208,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C39" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -1240,13 +1222,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -1254,13 +1236,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -1268,13 +1250,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -1282,13 +1264,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B43" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -1296,13 +1278,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B44" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C44" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -1310,13 +1292,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="C45" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -1324,13 +1306,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="C46" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -1338,41 +1320,41 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="C48" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C49" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -1380,27 +1362,27 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="C50" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="C51" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -1408,55 +1390,55 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="C52" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C53" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B54" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C54" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B55" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -1464,30 +1446,30 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C56" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C57" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/html/resources/aoiConditions/test1Conditions.xlsx
+++ b/html/resources/aoiConditions/test1Conditions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="106">
   <si>
     <t>firstAudio</t>
   </si>
@@ -28,289 +28,310 @@
     <t>whichAudio</t>
   </si>
   <si>
+    <t>trainingaudio/22_kakoki3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/16_kokapi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/11_tokiko2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/13_kopopi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/19_papipi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/07_pitapi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/25_tapapi3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/05_titopo1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/08_tipako2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/01_kitipi2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/10_tokiti1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/21_papika3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/18_popata1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/14_pokoto1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/03_kikita3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/23_patoko1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/27_pakapa2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/04_kitoti1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/15_kopota1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/12_pokika1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/24_takopa3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/26_kapako2.wav</t>
+  </si>
+  <si>
     <t>trainingaudio/94_kipipi1.wav</t>
   </si>
   <si>
+    <t>trainingaudio/06_titoka3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/02_pitito3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/17_kotako1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/20_tatito2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/09_tipata3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/08_tipako3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/23_patoko3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/12_pokika3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/16_kokapi2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/01_kitipi3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/04_kitoti3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/25_tapapi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/15_kopota2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/05_titopo2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/24_takopa2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/14_pokoto2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/22_kakoki2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/03_kikita2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/18_popata2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/26_kapako1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/20_tatito3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/09_tipata2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/02_pitito1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/17_kotako3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/27_pakapa1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/94_kipipi2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/22_kakoki1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/11_tokiko1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/13_kopopi2.wav</t>
+  </si>
+  <si>
     <t>trainingaudio/19_papipi3.wav</t>
   </si>
   <si>
+    <t>trainingaudio/07_pitapi2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/08_tipako1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/01_kitipi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/10_tokiti2.wav</t>
+  </si>
+  <si>
     <t>trainingaudio/21_papika1.wav</t>
   </si>
   <si>
-    <t>trainingaudio/14_pokoto1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/25_tapapi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/15_kopota2.wav</t>
+    <t>trainingaudio/04_kitoti2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/15_kopota3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/24_takopa1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/06_titoka1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/02_pitito2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/17_kotako2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/20_tatito1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/12_pokika2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/16_kokapi3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/25_tapapi2.wav</t>
   </si>
   <si>
     <t>trainingaudio/05_titopo3.wav</t>
   </si>
   <si>
-    <t>trainingaudio/09_tipata2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/20_tatito1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/27_pakapa1.wav</t>
+    <t>trainingaudio/10_tokiti3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/26_kapako3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/09_tipata1.wav</t>
   </si>
   <si>
     <t>trainingaudio/06_titoka2.wav</t>
   </si>
   <si>
-    <t>trainingaudio/11_tokiko3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/17_kotako3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/24_takopa3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/26_kapako3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/02_pitito3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/08_tipako2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/03_kikita2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/18_popata2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/04_kitoti1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/23_patoko3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/07_pitapi3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/10_tokiti2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/22_kakoki3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/13_kopopi2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/01_kitipi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/16_kokapi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/12_pokika2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/18_popata3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/05_titopo1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/20_tatito2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/16_kokapi2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/17_kotako1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/22_kakoki1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/23_patoko1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/07_pitapi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/11_tokiko1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/15_kopota3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/12_pokika3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/10_tokiti1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/24_takopa2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/01_kitipi2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/19_papipi2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/21_papika3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/94_kipipi3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/19_papipi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/14_pokoto2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/25_tapapi3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/05_titopo2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/09_tipata3.wav</t>
-  </si>
-  <si>
     <t>trainingaudio/27_pakapa3.wav</t>
   </si>
   <si>
-    <t>trainingaudio/06_titoka3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/17_kotako2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/24_takopa1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/26_kapako1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/02_pitito1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/08_tipako1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/03_kikita3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/04_kitoti2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/07_pitapi2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/13_kopopi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/25_tapapi2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/14_pokoto3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/27_pakapa2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/11_tokiko2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/10_tokiti3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/94_kipipi2.wav</t>
+    <t>pngimages/22_egg.png</t>
+  </si>
+  <si>
+    <t>pngimages/16_icecream.png</t>
+  </si>
+  <si>
+    <t>pngimages/11_compass.png</t>
+  </si>
+  <si>
+    <t>pngimages/13_toast.png</t>
+  </si>
+  <si>
+    <t>pngimages/19_burger.png</t>
+  </si>
+  <si>
+    <t>pngimages/07_suitcase.png</t>
+  </si>
+  <si>
+    <t>pngimages/25_apple.png</t>
+  </si>
+  <si>
+    <t>pngimages/05_megaphone.png</t>
+  </si>
+  <si>
+    <t>pngimages/08_bell.png</t>
+  </si>
+  <si>
+    <t>pngimages/01_gift.png</t>
+  </si>
+  <si>
+    <t>pngimages/10_backpack.png</t>
+  </si>
+  <si>
+    <t>pngimages/21_cheese.png</t>
+  </si>
+  <si>
+    <t>pngimages/18_donut.png</t>
+  </si>
+  <si>
+    <t>pngimages/14_coffee.png</t>
+  </si>
+  <si>
+    <t>pngimages/03_box.png</t>
+  </si>
+  <si>
+    <t>pngimages/23_lemon.png</t>
+  </si>
+  <si>
+    <t>pngimages/27_kiwi.png</t>
+  </si>
+  <si>
+    <t>pngimages/04_ladder.png</t>
+  </si>
+  <si>
+    <t>pngimages/15_barrel.png</t>
+  </si>
+  <si>
+    <t>pngimages/12_pie.png</t>
+  </si>
+  <si>
+    <t>pngimages/24_banana.png</t>
+  </si>
+  <si>
+    <t>pngimages/26_pineapple.png</t>
   </si>
   <si>
     <t>pngimages/94_house.png</t>
   </si>
   <si>
-    <t>pngimages/19_burger.png</t>
-  </si>
-  <si>
-    <t>pngimages/21_cheese.png</t>
-  </si>
-  <si>
-    <t>pngimages/14_coffee.png</t>
-  </si>
-  <si>
-    <t>pngimages/25_apple.png</t>
-  </si>
-  <si>
-    <t>pngimages/15_barrel.png</t>
-  </si>
-  <si>
-    <t>pngimages/05_megaphone.png</t>
+    <t>pngimages/06_tent.png</t>
+  </si>
+  <si>
+    <t>pngimages/02_pallet.png</t>
+  </si>
+  <si>
+    <t>pngimages/17_cracker.png</t>
+  </si>
+  <si>
+    <t>pngimages/20_pizza.png</t>
   </si>
   <si>
     <t>pngimages/09_plane.png</t>
-  </si>
-  <si>
-    <t>pngimages/20_pizza.png</t>
-  </si>
-  <si>
-    <t>pngimages/27_kiwi.png</t>
-  </si>
-  <si>
-    <t>pngimages/06_tent.png</t>
-  </si>
-  <si>
-    <t>pngimages/11_compass.png</t>
-  </si>
-  <si>
-    <t>pngimages/17_cracker.png</t>
-  </si>
-  <si>
-    <t>pngimages/24_banana.png</t>
-  </si>
-  <si>
-    <t>pngimages/26_pineapple.png</t>
-  </si>
-  <si>
-    <t>pngimages/02_pallet.png</t>
-  </si>
-  <si>
-    <t>pngimages/08_bell.png</t>
-  </si>
-  <si>
-    <t>pngimages/03_box.png</t>
-  </si>
-  <si>
-    <t>pngimages/18_donut.png</t>
-  </si>
-  <si>
-    <t>pngimages/04_ladder.png</t>
-  </si>
-  <si>
-    <t>pngimages/23_lemon.png</t>
-  </si>
-  <si>
-    <t>pngimages/07_suitcase.png</t>
-  </si>
-  <si>
-    <t>pngimages/10_backpack.png</t>
-  </si>
-  <si>
-    <t>pngimages/22_egg.png</t>
-  </si>
-  <si>
-    <t>pngimages/13_toast.png</t>
-  </si>
-  <si>
-    <t>pngimages/01_gift.png</t>
-  </si>
-  <si>
-    <t>pngimages/16_icecream.png</t>
-  </si>
-  <si>
-    <t>pngimages/12_pie.png</t>
   </si>
 </sst>
 </file>
@@ -693,13 +714,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -707,10 +728,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -721,13 +742,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -735,10 +756,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -749,10 +770,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -763,10 +784,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -777,10 +798,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -791,13 +812,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -805,10 +826,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -819,13 +840,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -833,13 +854,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -847,10 +868,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -861,10 +882,10 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -875,13 +896,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -889,13 +910,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -903,10 +924,10 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -917,13 +938,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -931,10 +952,10 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -945,13 +966,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -959,10 +980,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -973,10 +994,10 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -987,10 +1008,10 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -1001,13 +1022,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1015,13 +1036,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1029,13 +1050,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1043,13 +1064,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1057,10 +1078,10 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -1071,10 +1092,10 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -1085,10 +1106,10 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -1096,69 +1117,69 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
         <v>79</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -1166,27 +1187,27 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="C37" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -1194,27 +1215,27 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="C38" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C39" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -1222,13 +1243,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -1236,27 +1257,27 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C41" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C42" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -1264,41 +1285,41 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C43" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="C44" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -1306,69 +1327,69 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="C47" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C48" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="C49" t="s">
         <v>90</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C50" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -1376,13 +1397,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C51" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -1390,41 +1411,41 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="C52" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B53" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C53" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" t="s">
         <v>28</v>
       </c>
-      <c r="B54" t="s">
-        <v>64</v>
-      </c>
       <c r="C54" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -1432,13 +1453,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="C55" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -1446,13 +1467,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="B56" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="C56" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -1460,16 +1481,16 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="B57" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="C57" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/html/resources/aoiConditions/test1Conditions.xlsx
+++ b/html/resources/aoiConditions/test1Conditions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="99">
   <si>
     <t>firstAudio</t>
   </si>
@@ -28,310 +28,289 @@
     <t>whichAudio</t>
   </si>
   <si>
+    <t>trainingaudio/14_pokoto1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/10_tokiti1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/03_kikita1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/07_pitapi2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/25_tapapi2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/04_kitoti1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/15_kopota1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/12_pokika1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/19_papipi3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/09_tipata2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/94_kipipi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/01_kitipi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/18_popata1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/08_tipako3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/06_titoka2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/26_kapako1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/16_kokapi3.wav</t>
+  </si>
+  <si>
     <t>trainingaudio/22_kakoki3.wav</t>
   </si>
   <si>
-    <t>trainingaudio/16_kokapi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/11_tokiko2.wav</t>
+    <t>trainingaudio/13_kopopi3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/27_pakapa1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/24_takopa3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/17_kotako1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/20_tatito1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/05_titopo1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/21_papika3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/02_pitito3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/11_tokiko1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/23_patoko1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/22_kakoki1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/05_titopo3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/02_pitito2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/15_kopota3.wav</t>
   </si>
   <si>
     <t>trainingaudio/13_kopopi1.wav</t>
   </si>
   <si>
+    <t>trainingaudio/16_kokapi2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/14_pokoto3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/08_tipako2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/17_kotako2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/24_takopa1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/04_kitoti2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/23_patoko3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/19_papipi2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/25_tapapi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/21_papika1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/03_kikita3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/12_pokika3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/10_tokiti3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/07_pitapi3.wav</t>
+  </si>
+  <si>
     <t>trainingaudio/19_papipi1.wav</t>
   </si>
   <si>
-    <t>trainingaudio/07_pitapi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/25_tapapi3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/05_titopo1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/08_tipako2.wav</t>
+    <t>trainingaudio/09_tipata3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/94_kipipi2.wav</t>
   </si>
   <si>
     <t>trainingaudio/01_kitipi2.wav</t>
   </si>
   <si>
-    <t>trainingaudio/10_tokiti1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/21_papika3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/18_popata1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/14_pokoto1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/03_kikita3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/23_patoko1.wav</t>
+    <t>trainingaudio/18_popata2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/06_titoka3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/26_kapako3.wav</t>
   </si>
   <si>
     <t>trainingaudio/27_pakapa2.wav</t>
   </si>
   <si>
-    <t>trainingaudio/04_kitoti1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/15_kopota1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/12_pokika1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/24_takopa3.wav</t>
+    <t>trainingaudio/20_tatito2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/05_titopo2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/11_tokiko3.wav</t>
   </si>
   <si>
     <t>trainingaudio/26_kapako2.wav</t>
   </si>
   <si>
-    <t>trainingaudio/94_kipipi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/06_titoka3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/02_pitito3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/17_kotako1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/20_tatito2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/09_tipata3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/08_tipako3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/23_patoko3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/12_pokika3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/16_kokapi2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/01_kitipi3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/04_kitoti3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/25_tapapi1.wav</t>
-  </si>
-  <si>
     <t>trainingaudio/15_kopota2.wav</t>
   </si>
   <si>
-    <t>trainingaudio/05_titopo2.wav</t>
+    <t>trainingaudio/13_kopopi2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/08_tipako1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/10_tokiti2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/94_kipipi3.wav</t>
   </si>
   <si>
     <t>trainingaudio/24_takopa2.wav</t>
   </si>
   <si>
-    <t>trainingaudio/14_pokoto2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/22_kakoki2.wav</t>
-  </si>
-  <si>
     <t>trainingaudio/03_kikita2.wav</t>
   </si>
   <si>
-    <t>trainingaudio/18_popata2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/26_kapako1.wav</t>
-  </si>
-  <si>
     <t>trainingaudio/20_tatito3.wav</t>
   </si>
   <si>
-    <t>trainingaudio/09_tipata2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/02_pitito1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/17_kotako3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/27_pakapa1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/94_kipipi2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/22_kakoki1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/11_tokiko1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/13_kopopi2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/19_papipi3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/07_pitapi2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/08_tipako1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/01_kitipi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/10_tokiti2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/21_papika1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/04_kitoti2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/15_kopota3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/24_takopa1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/06_titoka1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/02_pitito2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/17_kotako2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/20_tatito1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/12_pokika2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/16_kokapi3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/25_tapapi2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/05_titopo3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/10_tokiti3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/26_kapako3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/09_tipata1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/06_titoka2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/27_pakapa3.wav</t>
+    <t>pngimages/14_coffee.png</t>
+  </si>
+  <si>
+    <t>pngimages/10_backpack.png</t>
+  </si>
+  <si>
+    <t>pngimages/03_box.png</t>
+  </si>
+  <si>
+    <t>pngimages/07_suitcase.png</t>
+  </si>
+  <si>
+    <t>pngimages/25_apple.png</t>
+  </si>
+  <si>
+    <t>pngimages/04_ladder.png</t>
+  </si>
+  <si>
+    <t>pngimages/15_barrel.png</t>
+  </si>
+  <si>
+    <t>pngimages/12_pie.png</t>
+  </si>
+  <si>
+    <t>pngimages/19_burger.png</t>
+  </si>
+  <si>
+    <t>pngimages/09_plane.png</t>
+  </si>
+  <si>
+    <t>pngimages/94_house.png</t>
+  </si>
+  <si>
+    <t>pngimages/01_gift.png</t>
+  </si>
+  <si>
+    <t>pngimages/18_donut.png</t>
+  </si>
+  <si>
+    <t>pngimages/08_bell.png</t>
+  </si>
+  <si>
+    <t>pngimages/06_tent.png</t>
+  </si>
+  <si>
+    <t>pngimages/26_pineapple.png</t>
+  </si>
+  <si>
+    <t>pngimages/16_icecream.png</t>
   </si>
   <si>
     <t>pngimages/22_egg.png</t>
   </si>
   <si>
-    <t>pngimages/16_icecream.png</t>
+    <t>pngimages/13_toast.png</t>
+  </si>
+  <si>
+    <t>pngimages/27_kiwi.png</t>
+  </si>
+  <si>
+    <t>pngimages/24_banana.png</t>
+  </si>
+  <si>
+    <t>pngimages/17_cracker.png</t>
+  </si>
+  <si>
+    <t>pngimages/20_pizza.png</t>
+  </si>
+  <si>
+    <t>pngimages/05_megaphone.png</t>
+  </si>
+  <si>
+    <t>pngimages/21_cheese.png</t>
+  </si>
+  <si>
+    <t>pngimages/02_pallet.png</t>
   </si>
   <si>
     <t>pngimages/11_compass.png</t>
   </si>
   <si>
-    <t>pngimages/13_toast.png</t>
-  </si>
-  <si>
-    <t>pngimages/19_burger.png</t>
-  </si>
-  <si>
-    <t>pngimages/07_suitcase.png</t>
-  </si>
-  <si>
-    <t>pngimages/25_apple.png</t>
-  </si>
-  <si>
-    <t>pngimages/05_megaphone.png</t>
-  </si>
-  <si>
-    <t>pngimages/08_bell.png</t>
-  </si>
-  <si>
-    <t>pngimages/01_gift.png</t>
-  </si>
-  <si>
-    <t>pngimages/10_backpack.png</t>
-  </si>
-  <si>
-    <t>pngimages/21_cheese.png</t>
-  </si>
-  <si>
-    <t>pngimages/18_donut.png</t>
-  </si>
-  <si>
-    <t>pngimages/14_coffee.png</t>
-  </si>
-  <si>
-    <t>pngimages/03_box.png</t>
-  </si>
-  <si>
     <t>pngimages/23_lemon.png</t>
-  </si>
-  <si>
-    <t>pngimages/27_kiwi.png</t>
-  </si>
-  <si>
-    <t>pngimages/04_ladder.png</t>
-  </si>
-  <si>
-    <t>pngimages/15_barrel.png</t>
-  </si>
-  <si>
-    <t>pngimages/12_pie.png</t>
-  </si>
-  <si>
-    <t>pngimages/24_banana.png</t>
-  </si>
-  <si>
-    <t>pngimages/26_pineapple.png</t>
-  </si>
-  <si>
-    <t>pngimages/94_house.png</t>
-  </si>
-  <si>
-    <t>pngimages/06_tent.png</t>
-  </si>
-  <si>
-    <t>pngimages/02_pallet.png</t>
-  </si>
-  <si>
-    <t>pngimages/17_cracker.png</t>
-  </si>
-  <si>
-    <t>pngimages/20_pizza.png</t>
-  </si>
-  <si>
-    <t>pngimages/09_plane.png</t>
   </si>
 </sst>
 </file>
@@ -714,13 +693,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -728,13 +707,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -742,10 +721,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -756,10 +735,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -770,13 +749,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -784,10 +763,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -798,10 +777,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -812,10 +791,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -826,13 +805,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -840,13 +819,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -854,10 +833,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -868,13 +847,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -882,10 +861,10 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -896,13 +875,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -910,13 +889,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -924,10 +903,10 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -938,10 +917,10 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -952,10 +931,10 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -966,10 +945,10 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -980,13 +959,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -994,10 +973,10 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1008,10 +987,10 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -1022,10 +1001,10 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1036,13 +1015,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1050,13 +1029,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1064,13 +1043,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1078,13 +1057,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1092,13 +1071,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1106,13 +1085,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1120,10 +1099,10 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -1134,24 +1113,24 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1159,27 +1138,27 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -1187,13 +1166,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C36" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -1201,13 +1180,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C37" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -1215,27 +1194,27 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="C38" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -1243,13 +1222,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -1257,13 +1236,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -1271,52 +1250,52 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B42" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="C44" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C45" t="s">
         <v>81</v>
@@ -1327,10 +1306,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C46" t="s">
         <v>82</v>
@@ -1341,41 +1320,41 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="C48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -1383,27 +1362,27 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B50" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="C50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B51" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -1411,13 +1390,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
         <v>75</v>
-      </c>
-      <c r="C52" t="s">
-        <v>105</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -1425,13 +1404,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B53" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="C53" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -1439,41 +1418,41 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="B54" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B55" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C55" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B56" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -1481,16 +1460,16 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B57" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="C57" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/html/resources/aoiConditions/test1Conditions.xlsx
+++ b/html/resources/aoiConditions/test1Conditions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="109">
   <si>
     <t>firstAudio</t>
   </si>
@@ -34,289 +34,310 @@
     <t>feedback</t>
   </si>
   <si>
+    <t>trainingaudio/04_kitoti1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/12_pokika1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/02_pitito3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/20_tatito2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/24_takopa2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/09_tipata1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/14_pokoto3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/15_kopota3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/27_pakapa3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/22_kakoki1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/18_popata2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/13_kopopi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/06_titoka3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/11_tokiko3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/05_titopo2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/94_kipipi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/07_pitapi2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/25_tapapi2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/03_kikita2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/01_kitipi2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/26_kapako2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/10_tokiti3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/21_papika1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/19_papipi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/17_kotako1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/16_kokapi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/23_patoko2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/08_tipako2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/27_pakapa2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/20_tatito3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/12_pokika3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/01_kitipi3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/09_tipata3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/25_tapapi3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/15_kopota1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/24_takopa3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/06_titoka2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/16_kokapi2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/22_kakoki2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/17_kotako2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/13_kopopi3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/94_kipipi2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/19_papipi3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/11_tokiko1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/26_kapako1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/23_patoko1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/14_pokoto2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/03_kikita3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/04_kitoti2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/02_pitito1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/20_tatito1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/24_takopa1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/09_tipata2.wav</t>
+  </si>
+  <si>
     <t>trainingaudio/14_pokoto1.wav</t>
   </si>
   <si>
+    <t>trainingaudio/15_kopota2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/27_pakapa1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/22_kakoki3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/18_popata3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/13_kopopi2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/06_titoka1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/05_titopo3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/07_pitapi3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/25_tapapi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/01_kitipi1.wav</t>
+  </si>
+  <si>
     <t>trainingaudio/10_tokiti1.wav</t>
   </si>
   <si>
+    <t>trainingaudio/21_papika3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/08_tipako3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/02_pitito2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/08_tipako1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/16_kokapi3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/17_kotako3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/11_tokiko2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/23_patoko3.wav</t>
+  </si>
+  <si>
     <t>trainingaudio/03_kikita1.wav</t>
   </si>
   <si>
-    <t>trainingaudio/07_pitapi2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/25_tapapi2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/04_kitoti1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/15_kopota1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/12_pokika1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/19_papipi3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/09_tipata2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/94_kipipi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/01_kitipi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/18_popata1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/08_tipako3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/06_titoka2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/26_kapako1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/16_kokapi3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/22_kakoki3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/13_kopopi3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/27_pakapa1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/24_takopa3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/17_kotako1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/20_tatito1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/05_titopo1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/21_papika3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/02_pitito3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/11_tokiko1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/23_patoko1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/22_kakoki1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/05_titopo3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/02_pitito2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/15_kopota3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/13_kopopi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/16_kokapi2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/14_pokoto3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/08_tipako2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/17_kotako2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/24_takopa1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/04_kitoti2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/23_patoko3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/19_papipi2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/25_tapapi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/21_papika1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/03_kikita3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/12_pokika3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/10_tokiti3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/07_pitapi3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/19_papipi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/09_tipata3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/94_kipipi2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/01_kitipi2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/18_popata2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/06_titoka3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/26_kapako3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/27_pakapa2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/20_tatito2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/05_titopo2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/11_tokiko3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/26_kapako2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/15_kopota2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/13_kopopi2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/08_tipako1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/10_tokiti2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/94_kipipi3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/24_takopa2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/03_kikita2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/20_tatito3.wav</t>
+    <t>pngimages/04_ladder.png</t>
+  </si>
+  <si>
+    <t>pngimages/12_pie.png</t>
+  </si>
+  <si>
+    <t>pngimages/02_pallet.png</t>
+  </si>
+  <si>
+    <t>pngimages/20_pizza.png</t>
+  </si>
+  <si>
+    <t>pngimages/24_banana.png</t>
+  </si>
+  <si>
+    <t>pngimages/09_plane.png</t>
   </si>
   <si>
     <t>pngimages/14_coffee.png</t>
   </si>
   <si>
+    <t>pngimages/15_barrel.png</t>
+  </si>
+  <si>
+    <t>pngimages/27_kiwi.png</t>
+  </si>
+  <si>
+    <t>pngimages/22_egg.png</t>
+  </si>
+  <si>
+    <t>pngimages/18_donut.png</t>
+  </si>
+  <si>
+    <t>pngimages/13_toast.png</t>
+  </si>
+  <si>
+    <t>pngimages/06_tent.png</t>
+  </si>
+  <si>
+    <t>pngimages/11_compass.png</t>
+  </si>
+  <si>
+    <t>pngimages/05_megaphone.png</t>
+  </si>
+  <si>
+    <t>pngimages/94_house.png</t>
+  </si>
+  <si>
+    <t>pngimages/07_suitcase.png</t>
+  </si>
+  <si>
+    <t>pngimages/25_apple.png</t>
+  </si>
+  <si>
+    <t>pngimages/03_box.png</t>
+  </si>
+  <si>
+    <t>pngimages/01_gift.png</t>
+  </si>
+  <si>
+    <t>pngimages/26_pineapple.png</t>
+  </si>
+  <si>
     <t>pngimages/10_backpack.png</t>
   </si>
   <si>
-    <t>pngimages/03_box.png</t>
-  </si>
-  <si>
-    <t>pngimages/07_suitcase.png</t>
-  </si>
-  <si>
-    <t>pngimages/25_apple.png</t>
-  </si>
-  <si>
-    <t>pngimages/04_ladder.png</t>
-  </si>
-  <si>
-    <t>pngimages/15_barrel.png</t>
-  </si>
-  <si>
-    <t>pngimages/12_pie.png</t>
+    <t>pngimages/21_cheese.png</t>
   </si>
   <si>
     <t>pngimages/19_burger.png</t>
   </si>
   <si>
-    <t>pngimages/09_plane.png</t>
-  </si>
-  <si>
-    <t>pngimages/94_house.png</t>
-  </si>
-  <si>
-    <t>pngimages/01_gift.png</t>
-  </si>
-  <si>
-    <t>pngimages/18_donut.png</t>
+    <t>pngimages/17_cracker.png</t>
+  </si>
+  <si>
+    <t>pngimages/16_icecream.png</t>
+  </si>
+  <si>
+    <t>pngimages/23_lemon.png</t>
   </si>
   <si>
     <t>pngimages/08_bell.png</t>
-  </si>
-  <si>
-    <t>pngimages/06_tent.png</t>
-  </si>
-  <si>
-    <t>pngimages/26_pineapple.png</t>
-  </si>
-  <si>
-    <t>pngimages/16_icecream.png</t>
-  </si>
-  <si>
-    <t>pngimages/22_egg.png</t>
-  </si>
-  <si>
-    <t>pngimages/13_toast.png</t>
-  </si>
-  <si>
-    <t>pngimages/27_kiwi.png</t>
-  </si>
-  <si>
-    <t>pngimages/24_banana.png</t>
-  </si>
-  <si>
-    <t>pngimages/17_cracker.png</t>
-  </si>
-  <si>
-    <t>pngimages/20_pizza.png</t>
-  </si>
-  <si>
-    <t>pngimages/05_megaphone.png</t>
-  </si>
-  <si>
-    <t>pngimages/21_cheese.png</t>
-  </si>
-  <si>
-    <t>pngimages/02_pallet.png</t>
-  </si>
-  <si>
-    <t>pngimages/11_compass.png</t>
-  </si>
-  <si>
-    <t>pngimages/23_lemon.png</t>
   </si>
   <si>
     <t>test1</t>
@@ -708,19 +729,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -728,19 +749,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -748,19 +769,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -768,19 +789,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -788,19 +809,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -808,19 +829,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -828,19 +849,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -848,19 +869,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -868,19 +889,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -888,16 +909,16 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F11" t="s">
         <v>15</v>
@@ -908,16 +929,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
@@ -928,16 +949,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
@@ -948,19 +969,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -968,19 +989,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -988,19 +1009,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1008,16 +1029,16 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F17" t="s">
         <v>21</v>
@@ -1028,19 +1049,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1048,19 +1069,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D19">
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1068,19 +1089,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1088,19 +1109,19 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F21" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1108,19 +1129,19 @@
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1128,19 +1149,19 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1148,16 +1169,16 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F24" t="s">
         <v>28</v>
@@ -1168,19 +1189,19 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1188,19 +1209,19 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F26" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1208,19 +1229,19 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1228,19 +1249,19 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1248,16 +1269,16 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="C29" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F29" t="s">
         <v>33</v>
@@ -1268,19 +1289,19 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1288,19 +1309,19 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D31">
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1308,236 +1329,236 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D35">
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F35" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F36" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C37" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D39">
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F39" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="C40" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F40" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="C41" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
         <v>15</v>
       </c>
-      <c r="B43" t="s">
-        <v>54</v>
-      </c>
       <c r="C43" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F43" t="s">
         <v>15</v>
@@ -1545,282 +1566,282 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C44" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F44" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="C45" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="C46" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C47" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F47" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B48" t="s">
         <v>70</v>
       </c>
       <c r="C48" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F48" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C49" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F49" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C50" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="C51" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F51" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="C52" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F52" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="C53" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F53" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="C54" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F54" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C55" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F55" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F56" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C57" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F57" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/html/resources/aoiConditions/test1Conditions.xlsx
+++ b/html/resources/aoiConditions/test1Conditions.xlsx
@@ -34,226 +34,226 @@
     <t>feedback</t>
   </si>
   <si>
-    <t>trainingaudio/04_kitoti1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/12_pokika1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/02_pitito3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/20_tatito2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/24_takopa2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/09_tipata1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/14_pokoto3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/15_kopota3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/27_pakapa3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/22_kakoki1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/18_popata2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/13_kopopi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/06_titoka3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/11_tokiko3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/05_titopo2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/94_kipipi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/07_pitapi2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/25_tapapi2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/03_kikita2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/01_kitipi2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/26_kapako2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/10_tokiti3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/21_papika1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/19_papipi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/17_kotako1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/16_kokapi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/23_patoko2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/08_tipako2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/27_pakapa2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/20_tatito3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/12_pokika3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/01_kitipi3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/09_tipata3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/25_tapapi3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/15_kopota1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/24_takopa3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/06_titoka2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/16_kokapi2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/22_kakoki2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/17_kotako2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/13_kopopi3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/94_kipipi2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/19_papipi3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/11_tokiko1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/26_kapako1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/23_patoko1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/14_pokoto2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/03_kikita3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/04_kitoti2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/02_pitito1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/20_tatito1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/24_takopa1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/09_tipata2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/14_pokoto1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/15_kopota2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/27_pakapa1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/22_kakoki3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/18_popata3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/13_kopopi2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/06_titoka1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/05_titopo3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/07_pitapi3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/25_tapapi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/01_kitipi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/10_tokiti1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/21_papika3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/08_tipako3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/02_pitito2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/08_tipako1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/16_kokapi3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/17_kotako3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/11_tokiko2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/23_patoko3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/03_kikita1.wav</t>
+    <t>trainingaudio/04_kitoti1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/12_pokika1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/02_pitito3.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/20_tatito2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/24_takopa2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/09_tipata1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/14_pokoto3.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/15_kopota3.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/27_pakapa3.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/22_kakoki1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/18_popata2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/13_kopopi1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/06_titoka3.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/11_tokiko3.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/05_titopo2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/94_kipipi1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/07_pitapi2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/25_tapapi2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/03_kikita2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/01_kitipi2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/26_kapako2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/10_tokiti3.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/21_papika1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/19_papipi1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/17_kotako1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/16_kokapi1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/23_patoko2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/08_tipako2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/27_pakapa2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/20_tatito3.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/12_pokika3.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/01_kitipi3.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/09_tipata3.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/25_tapapi3.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/15_kopota1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/24_takopa3.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/06_titoka2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/16_kokapi2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/22_kakoki2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/17_kotako2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/13_kopopi3.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/94_kipipi2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/19_papipi3.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/11_tokiko1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/26_kapako1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/23_patoko1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/14_pokoto2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/03_kikita3.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/04_kitoti2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/02_pitito1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/20_tatito1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/24_takopa1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/09_tipata2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/14_pokoto1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/15_kopota2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/27_pakapa1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/22_kakoki3.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/18_popata3.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/13_kopopi2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/06_titoka1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/05_titopo3.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/07_pitapi3.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/25_tapapi1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/01_kitipi1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/10_tokiti1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/21_papika3.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/08_tipako3.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/02_pitito2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/08_tipako1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/16_kokapi3.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/17_kotako3.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/11_tokiko2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/23_patoko3.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/03_kikita1.mp3</t>
   </si>
   <si>
     <t>pngimages/04_ladder.png</t>

--- a/html/resources/aoiConditions/test1Conditions.xlsx
+++ b/html/resources/aoiConditions/test1Conditions.xlsx
@@ -34,226 +34,226 @@
     <t>feedback</t>
   </si>
   <si>
-    <t>trainingaudio/04_kitoti1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/12_pokika1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/02_pitito3.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/20_tatito2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/24_takopa2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/09_tipata1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/14_pokoto3.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/15_kopota3.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/27_pakapa3.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/22_kakoki1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/18_popata2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/13_kopopi1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/06_titoka3.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/11_tokiko3.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/05_titopo2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/94_kipipi1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/07_pitapi2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/25_tapapi2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/03_kikita2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/01_kitipi2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/26_kapako2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/10_tokiti3.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/21_papika1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/19_papipi1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/17_kotako1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/16_kokapi1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/23_patoko2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/08_tipako2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/27_pakapa2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/20_tatito3.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/12_pokika3.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/01_kitipi3.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/09_tipata3.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/25_tapapi3.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/15_kopota1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/24_takopa3.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/06_titoka2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/16_kokapi2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/22_kakoki2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/17_kotako2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/13_kopopi3.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/94_kipipi2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/19_papipi3.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/11_tokiko1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/26_kapako1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/23_patoko1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/14_pokoto2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/03_kikita3.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/04_kitoti2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/02_pitito1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/20_tatito1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/24_takopa1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/09_tipata2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/14_pokoto1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/15_kopota2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/27_pakapa1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/22_kakoki3.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/18_popata3.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/13_kopopi2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/06_titoka1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/05_titopo3.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/07_pitapi3.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/25_tapapi1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/01_kitipi1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/10_tokiti1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/21_papika3.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/08_tipako3.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/02_pitito2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/08_tipako1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/16_kokapi3.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/17_kotako3.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/11_tokiko2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/23_patoko3.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/03_kikita1.mp3</t>
+    <t>trainingaudio/04_kitoti1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/12_pokika1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/02_pitito3.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/20_tatito2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/24_takopa2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/09_tipata1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/14_pokoto3.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/15_kopota3.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/27_pakapa3.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/22_kakoki1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/18_popata2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/13_kopopi1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/06_titoka3.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/11_tokiko3.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/05_titopo2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/94_kipipi1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/07_pitapi2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/25_tapapi2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/03_kikita2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/01_kitipi2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/26_kapako2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/10_tokiti3.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/21_papika1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/19_papipi1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/17_kotako1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/16_kokapi1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/23_patoko2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/08_tipako2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/27_pakapa2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/20_tatito3.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/12_pokika3.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/01_kitipi3.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/09_tipata3.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/25_tapapi3.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/15_kopota1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/24_takopa3.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/06_titoka2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/16_kokapi2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/22_kakoki2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/17_kotako2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/13_kopopi3.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/94_kipipi2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/19_papipi3.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/11_tokiko1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/26_kapako1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/23_patoko1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/14_pokoto2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/03_kikita3.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/04_kitoti2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/02_pitito1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/20_tatito1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/24_takopa1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/09_tipata2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/14_pokoto1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/15_kopota2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/27_pakapa1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/22_kakoki3.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/18_popata3.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/13_kopopi2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/06_titoka1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/05_titopo3.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/07_pitapi3.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/25_tapapi1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/01_kitipi1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/10_tokiti1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/21_papika3.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/08_tipako3.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/02_pitito2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/08_tipako1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/16_kokapi3.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/17_kotako3.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/11_tokiko2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/23_patoko3.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/03_kikita1.ogg</t>
   </si>
   <si>
     <t>pngimages/04_ladder.png</t>

--- a/html/resources/aoiConditions/test1Conditions.xlsx
+++ b/html/resources/aoiConditions/test1Conditions.xlsx
@@ -34,226 +34,226 @@
     <t>feedback</t>
   </si>
   <si>
-    <t>trainingaudio/04_kitoti1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/12_pokika1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/02_pitito3.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/20_tatito2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/24_takopa2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/09_tipata1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/14_pokoto3.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/15_kopota3.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/27_pakapa3.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/22_kakoki1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/18_popata2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/13_kopopi1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/06_titoka3.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/11_tokiko3.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/05_titopo2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/94_kipipi1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/07_pitapi2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/25_tapapi2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/03_kikita2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/01_kitipi2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/26_kapako2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/10_tokiti3.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/21_papika1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/19_papipi1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/17_kotako1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/16_kokapi1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/23_patoko2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/08_tipako2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/27_pakapa2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/20_tatito3.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/12_pokika3.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/01_kitipi3.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/09_tipata3.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/25_tapapi3.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/15_kopota1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/24_takopa3.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/06_titoka2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/16_kokapi2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/22_kakoki2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/17_kotako2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/13_kopopi3.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/94_kipipi2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/19_papipi3.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/11_tokiko1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/26_kapako1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/23_patoko1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/14_pokoto2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/03_kikita3.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/04_kitoti2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/02_pitito1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/20_tatito1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/24_takopa1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/09_tipata2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/14_pokoto1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/15_kopota2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/27_pakapa1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/22_kakoki3.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/18_popata3.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/13_kopopi2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/06_titoka1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/05_titopo3.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/07_pitapi3.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/25_tapapi1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/01_kitipi1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/10_tokiti1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/21_papika3.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/08_tipako3.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/02_pitito2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/08_tipako1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/16_kokapi3.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/17_kotako3.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/11_tokiko2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/23_patoko3.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/03_kikita1.ogg</t>
+    <t>trainingaudio/04_kitoti1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/12_pokika1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/02_pitito3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/20_tatito2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/24_takopa2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/09_tipata1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/14_pokoto3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/15_kopota3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/27_pakapa3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/22_kakoki1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/18_popata2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/13_kopopi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/06_titoka3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/11_tokiko3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/05_titopo2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/94_kipipi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/07_pitapi2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/25_tapapi2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/03_kikita2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/01_kitipi2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/26_kapako2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/10_tokiti3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/21_papika1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/19_papipi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/17_kotako1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/16_kokapi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/23_patoko2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/08_tipako2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/27_pakapa2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/20_tatito3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/12_pokika3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/01_kitipi3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/09_tipata3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/25_tapapi3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/15_kopota1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/24_takopa3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/06_titoka2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/16_kokapi2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/22_kakoki2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/17_kotako2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/13_kopopi3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/94_kipipi2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/19_papipi3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/11_tokiko1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/26_kapako1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/23_patoko1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/14_pokoto2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/03_kikita3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/04_kitoti2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/02_pitito1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/20_tatito1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/24_takopa1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/09_tipata2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/14_pokoto1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/15_kopota2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/27_pakapa1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/22_kakoki3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/18_popata3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/13_kopopi2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/06_titoka1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/05_titopo3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/07_pitapi3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/25_tapapi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/01_kitipi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/10_tokiti1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/21_papika3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/08_tipako3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/02_pitito2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/08_tipako1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/16_kokapi3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/17_kotako3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/11_tokiko2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/23_patoko3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/03_kikita1.wav</t>
   </si>
   <si>
     <t>pngimages/04_ladder.png</t>
